--- a/NotasFiscais.xlsx
+++ b/NotasFiscais.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cbep-my.sharepoint.com/personal/eder_castro_grupocb_com_br/Documents/Documentos/GitHub/XML to XLSX/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_66D19FBD2FEBCC4D5E0DA00C906429574ACC6596" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D076428B-105B-41BD-B18D-D8E89EFFAE90}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Notas Fiscais" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
   <si>
     <t>Número NF</t>
   </si>
@@ -34,12 +40,12 @@
     <t>Razão Social Tomador</t>
   </si>
   <si>
+    <t>Contrato</t>
+  </si>
+  <si>
     <t>Pedido</t>
   </si>
   <si>
-    <t>Contrato</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
@@ -305,16 +311,23 @@
   </si>
   <si>
     <t>nota_n1121824.xml</t>
+  </si>
+  <si>
+    <t>nota_n1210434.xml</t>
+  </si>
+  <si>
+    <t>278017000105</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000&quot;-&quot;00"/>
+    <numFmt numFmtId="165" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,25 +379,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -422,7 +446,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -456,6 +480,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -490,9 +515,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -665,14 +691,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="108" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,1393 +743,1419 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1128</v>
       </c>
       <c r="B2" s="2">
-        <v>45752.40023148148</v>
-      </c>
-      <c r="C2">
+        <v>45752.400231481479</v>
+      </c>
+      <c r="C2" s="3">
         <v>29423783000106</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>59291534000167</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
       </c>
       <c r="G2">
+        <v>4700000396</v>
+      </c>
+      <c r="H2">
         <v>4500011948</v>
       </c>
-      <c r="H2">
-        <v>4700000396</v>
-      </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>544.71</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19947</v>
       </c>
       <c r="B3" s="2">
-        <v>45713.4578125</v>
-      </c>
-      <c r="C3">
+        <v>45713.457812499997</v>
+      </c>
+      <c r="C3" s="3">
         <v>510077000101</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>13718634000126</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>2250</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>329557</v>
       </c>
       <c r="B4" s="2">
-        <v>45756.90399305556</v>
-      </c>
-      <c r="C4">
+        <v>45756.903993055559</v>
+      </c>
+      <c r="C4" s="3">
         <v>24166595000118</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>59291534000167</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4">
+        <v>4700002146</v>
+      </c>
+      <c r="H4">
         <v>4500012252</v>
       </c>
-      <c r="H4">
-        <v>4700002146</v>
-      </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>5600</v>
       </c>
       <c r="J4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7028691</v>
       </c>
       <c r="B5" s="2">
-        <v>45505.65646990741</v>
-      </c>
-      <c r="C5">
+        <v>45505.656469907408</v>
+      </c>
+      <c r="C5" s="3">
         <v>54651716001150</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>34499567000176</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>2739.86</v>
       </c>
       <c r="J5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3749</v>
       </c>
       <c r="B6" s="2">
-        <v>45756.43296296296</v>
-      </c>
-      <c r="C6">
+        <v>45756.432962962957</v>
+      </c>
+      <c r="C6" s="3">
         <v>2878522000116</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>19760435000162</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4500012841</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>5000</v>
       </c>
       <c r="J6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3750</v>
       </c>
       <c r="B7" s="2">
-        <v>45756.44967592593</v>
-      </c>
-      <c r="C7">
+        <v>45756.449675925927</v>
+      </c>
+      <c r="C7" s="3">
         <v>2878522000116</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>32946884000168</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4500011509</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>45000</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>399494</v>
       </c>
       <c r="B8" s="2">
         <v>45693</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>3813865000165</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>59291534000167</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
       </c>
       <c r="G8">
+        <v>4700000892</v>
+      </c>
+      <c r="H8">
         <v>4500012024</v>
       </c>
-      <c r="H8">
-        <v>4700000892</v>
-      </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>4047.5</v>
       </c>
       <c r="J8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>401748</v>
       </c>
       <c r="B9" s="2">
         <v>45726</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>3813865000165</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>59291534000167</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
       </c>
       <c r="G9">
+        <v>4700000892</v>
+      </c>
+      <c r="H9">
         <v>4500012024</v>
       </c>
-      <c r="H9">
-        <v>4700000892</v>
-      </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>4047.5</v>
       </c>
       <c r="J9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>403924</v>
       </c>
       <c r="B10" s="2">
         <v>45751</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>3813865000165</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>59291534000167</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
       </c>
       <c r="G10">
+        <v>4700000892</v>
+      </c>
+      <c r="H10">
         <v>4500012024</v>
       </c>
-      <c r="H10">
-        <v>4700000892</v>
-      </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>4047.5</v>
       </c>
       <c r="J10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19834</v>
       </c>
       <c r="B11" s="2">
         <v>45254.61409722222</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>4816736000274</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>13718634000126</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>1642.87</v>
       </c>
       <c r="J11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>45730.32013888889</v>
-      </c>
-      <c r="C12">
+        <v>45730.320138888892</v>
+      </c>
+      <c r="C12" s="3">
         <v>18222938000111</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>59291534000167</v>
       </c>
       <c r="F12" t="s">
         <v>30</v>
       </c>
       <c r="G12">
+        <v>4700002371</v>
+      </c>
+      <c r="H12">
         <v>4200002035</v>
       </c>
-      <c r="H12">
-        <v>4700002371</v>
-      </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>525</v>
       </c>
       <c r="J12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1552</v>
       </c>
       <c r="B13" s="2">
-        <v>45111.57777777778</v>
-      </c>
-      <c r="C13">
+        <v>45111.577777777777</v>
+      </c>
+      <c r="C13" s="3">
         <v>57813057000127</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>59291534000167</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>4500007681</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>13450</v>
       </c>
       <c r="J13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7827</v>
       </c>
       <c r="B14" s="2">
         <v>45756</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>10428815000120</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>59291534000167</v>
       </c>
       <c r="F14" t="s">
         <v>35</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>607.6</v>
       </c>
       <c r="J14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12122</v>
       </c>
       <c r="B15" s="2">
-        <v>45190.49305555555</v>
-      </c>
-      <c r="C15">
+        <v>45190.493055555547</v>
+      </c>
+      <c r="C15" s="3">
         <v>512663001086</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>22064457000100</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>5570.9</v>
       </c>
       <c r="J15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>186109</v>
       </c>
       <c r="B16" s="2">
-        <v>45051.76072916666</v>
-      </c>
-      <c r="C16">
+        <v>45051.760729166657</v>
+      </c>
+      <c r="C16" s="3">
         <v>16701716003686</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>22064457000100</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>294981.57</v>
       </c>
       <c r="J16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>186111</v>
       </c>
       <c r="B17" s="2">
-        <v>45051.76082175926</v>
-      </c>
-      <c r="C17">
+        <v>45051.760821759257</v>
+      </c>
+      <c r="C17" s="3">
         <v>16701716003686</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>22064457000100</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>161515.78</v>
       </c>
       <c r="J17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>186112</v>
       </c>
       <c r="B18" s="2">
-        <v>45051.76086805556</v>
-      </c>
-      <c r="C18">
+        <v>45051.760868055557</v>
+      </c>
+      <c r="C18" s="3">
         <v>16701716003686</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>22064457000100</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>163204.87</v>
       </c>
       <c r="J18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>186113</v>
       </c>
       <c r="B19" s="2">
         <v>45051.76090277778</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>16701716003686</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>22064457000100</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>163549.16</v>
       </c>
       <c r="J19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>186602</v>
       </c>
       <c r="B20" s="2">
-        <v>45057.65873842593</v>
-      </c>
-      <c r="C20">
+        <v>45057.658738425933</v>
+      </c>
+      <c r="C20" s="3">
         <v>16701716003686</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>22064457000100</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>161515.78</v>
       </c>
       <c r="J20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>187932</v>
       </c>
       <c r="B21" s="2">
-        <v>45075.59012731481</v>
-      </c>
-      <c r="C21">
+        <v>45075.590127314812</v>
+      </c>
+      <c r="C21" s="3">
         <v>16701716003686</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>22064457000100</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="4">
         <v>252366.65</v>
       </c>
       <c r="J21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1864143</v>
       </c>
       <c r="B22" s="2">
-        <v>45048.96825231481</v>
-      </c>
-      <c r="C22">
+        <v>45048.968252314808</v>
+      </c>
+      <c r="C22" s="3">
         <v>16701716003686</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>17359647860</v>
       </c>
       <c r="F22" t="s">
         <v>38</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>171977.46</v>
       </c>
       <c r="J22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1866586</v>
       </c>
       <c r="B23" s="2">
-        <v>45051.67390046296</v>
-      </c>
-      <c r="C23">
+        <v>45051.673900462964</v>
+      </c>
+      <c r="C23" s="3">
         <v>16701716003686</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>16231810895</v>
       </c>
       <c r="F23" t="s">
         <v>39</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>120276.34</v>
       </c>
       <c r="J23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1867036</v>
       </c>
       <c r="B24" s="2">
-        <v>45051.8052662037</v>
-      </c>
-      <c r="C24">
+        <v>45051.805266203701</v>
+      </c>
+      <c r="C24" s="3">
         <v>16701716003686</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>22064457000100</v>
       </c>
       <c r="F24" t="s">
         <v>37</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>163549.16</v>
       </c>
       <c r="J24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>202500000003580</v>
       </c>
       <c r="B25" s="2">
-        <v>45756.62503472222</v>
-      </c>
-      <c r="C25">
+        <v>45756.625034722223</v>
+      </c>
+      <c r="C25" s="3">
         <v>9337014000331</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>59291534000167</v>
       </c>
       <c r="F25" t="s">
         <v>40</v>
       </c>
       <c r="G25">
+        <v>4700002415</v>
+      </c>
+      <c r="H25">
         <v>4500012059</v>
       </c>
-      <c r="H25">
-        <v>4700002415</v>
-      </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>38.28</v>
       </c>
       <c r="J25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>202500000003581</v>
       </c>
       <c r="B26" s="2">
-        <v>45756.62503472222</v>
-      </c>
-      <c r="C26">
+        <v>45756.625034722223</v>
+      </c>
+      <c r="C26" s="3">
         <v>9337014000331</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>59291534000167</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
       </c>
       <c r="G26">
+        <v>4700002415</v>
+      </c>
+      <c r="H26">
         <v>4500012059</v>
       </c>
-      <c r="H26">
-        <v>4700002415</v>
-      </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>935.88</v>
       </c>
       <c r="J26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1710</v>
       </c>
       <c r="B27" s="2">
         <v>45673</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>32946884000168</v>
       </c>
       <c r="F27" t="s">
         <v>41</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>1200</v>
       </c>
       <c r="J27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1711</v>
       </c>
       <c r="B28" s="2">
         <v>45673</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D28" t="s">
         <v>23</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>32946884000168</v>
       </c>
       <c r="F28" t="s">
         <v>41</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="4">
         <v>5507.94</v>
       </c>
       <c r="J28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2609</v>
       </c>
       <c r="B29" s="2">
         <v>45673</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>32946884000168</v>
       </c>
       <c r="F29" t="s">
         <v>41</v>
       </c>
-      <c r="I29">
-        <v>4720.19</v>
+      <c r="I29" s="4">
+        <v>4720.1899999999996</v>
       </c>
       <c r="J29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>338391</v>
       </c>
       <c r="B30" s="2">
         <v>45609</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>2348447000262</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>34499567000257</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
       </c>
-      <c r="I30">
-        <v>2259.03</v>
+      <c r="I30" s="4">
+        <v>2259.0300000000002</v>
       </c>
       <c r="J30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3860</v>
       </c>
       <c r="B31" s="2">
         <v>45706</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>32946884000168</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
       </c>
-      <c r="I31">
-        <v>4720.19</v>
+      <c r="I31" s="4">
+        <v>4720.1899999999996</v>
       </c>
       <c r="J31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4591</v>
       </c>
       <c r="B32" s="2">
         <v>45730</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>47756998000201</v>
       </c>
       <c r="F32" t="s">
         <v>42</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>1850</v>
       </c>
       <c r="J32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5308</v>
       </c>
       <c r="B33" s="2">
         <v>45763</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>31439951000195</v>
       </c>
       <c r="F33" t="s">
         <v>43</v>
       </c>
-      <c r="I33">
-        <v>4720.19</v>
+      <c r="I33" s="4">
+        <v>4720.1899999999996</v>
       </c>
       <c r="J33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5309</v>
       </c>
       <c r="B34" s="2">
         <v>45763</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>32946884000168</v>
       </c>
       <c r="F34" t="s">
         <v>41</v>
       </c>
-      <c r="I34">
-        <v>4720.19</v>
+      <c r="I34" s="4">
+        <v>4720.1899999999996</v>
       </c>
       <c r="J34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5310</v>
       </c>
       <c r="B35" s="2">
         <v>45763</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>34499567000176</v>
       </c>
       <c r="F35" t="s">
         <v>31</v>
       </c>
-      <c r="I35">
-        <v>4720.19</v>
+      <c r="I35" s="4">
+        <v>4720.1899999999996</v>
       </c>
       <c r="J35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5311</v>
       </c>
       <c r="B36" s="2">
         <v>45763</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>47756998000112</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
       </c>
-      <c r="I36">
-        <v>4720.19</v>
+      <c r="I36" s="4">
+        <v>4720.1899999999996</v>
       </c>
       <c r="J36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5558</v>
       </c>
       <c r="B37" s="2">
         <v>45763</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>31439951000357</v>
       </c>
       <c r="F37" t="s">
         <v>44</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="4">
         <v>3200.77</v>
       </c>
       <c r="J37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5559</v>
       </c>
       <c r="B38" s="2">
         <v>45763</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D38" t="s">
         <v>23</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>31439951000195</v>
       </c>
       <c r="F38" t="s">
         <v>43</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="4">
         <v>3651.7</v>
       </c>
       <c r="J38" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5560</v>
       </c>
       <c r="B39" s="2">
         <v>45763</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D39" t="s">
         <v>23</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>31439951000276</v>
       </c>
       <c r="F39" t="s">
         <v>43</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="4">
         <v>3255.86</v>
       </c>
       <c r="J39" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5561</v>
       </c>
       <c r="B40" s="2">
         <v>45763</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>32946884000168</v>
       </c>
       <c r="F40" t="s">
         <v>41</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="4">
         <v>1200</v>
       </c>
       <c r="J40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5562</v>
       </c>
       <c r="B41" s="2">
         <v>45763</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>32946884000168</v>
       </c>
       <c r="F41" t="s">
         <v>41</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="4">
         <v>5507.94</v>
       </c>
       <c r="J41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5563</v>
       </c>
       <c r="B42" s="2">
         <v>45763</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>34499567000338</v>
       </c>
       <c r="F42" t="s">
         <v>31</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="4">
         <v>1400.11</v>
       </c>
       <c r="J42" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6401</v>
       </c>
       <c r="B43" s="2">
         <v>45763</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>34499567000257</v>
       </c>
       <c r="F43" t="s">
         <v>31</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="4">
         <v>2368.37</v>
       </c>
       <c r="J43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6402</v>
       </c>
       <c r="B44" s="2">
         <v>45763</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D44" t="s">
         <v>23</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>34499567000419</v>
       </c>
       <c r="F44" t="s">
         <v>31</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="4">
         <v>1935.1</v>
       </c>
       <c r="J44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6403</v>
       </c>
       <c r="B45" s="2">
         <v>45763</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>34499567000508</v>
       </c>
       <c r="F45" t="s">
         <v>31</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="4">
         <v>1935.1</v>
       </c>
       <c r="J45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6404</v>
       </c>
       <c r="B46" s="2">
         <v>45763</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>34499567000680</v>
       </c>
       <c r="F46" t="s">
         <v>31</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="4">
         <v>1935.1</v>
       </c>
       <c r="J46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6405</v>
       </c>
       <c r="B47" s="2">
         <v>45763</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D47" t="s">
         <v>23</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>34499567000176</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="4">
         <v>2368.37</v>
       </c>
       <c r="J47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6418</v>
       </c>
       <c r="B48" s="2">
         <v>45763</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>47756998000112</v>
       </c>
       <c r="F48" t="s">
         <v>42</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="4">
         <v>1850</v>
       </c>
       <c r="J48" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6419</v>
       </c>
       <c r="B49" s="2">
         <v>45763</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>54008268000107</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>47756998000201</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="4">
         <v>1850</v>
       </c>
       <c r="J49" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11149</v>
       </c>
       <c r="B50" s="2">
         <v>45393</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>1675074000190</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>59291534000167</v>
       </c>
       <c r="F50" t="s">
         <v>28</v>
       </c>
       <c r="G50">
+        <v>4700001608</v>
+      </c>
+      <c r="H50">
         <v>4500009832</v>
       </c>
-      <c r="H50">
-        <v>4700001608</v>
-      </c>
-      <c r="I50">
+      <c r="I50" s="4">
         <v>12000</v>
       </c>
       <c r="J50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>445581</v>
       </c>
       <c r="B51" s="2">
-        <v>45758.28743055555</v>
-      </c>
-      <c r="C51">
+        <v>45758.287430555552</v>
+      </c>
+      <c r="C51" s="3">
         <v>5649289000279</v>
       </c>
       <c r="D51" t="s">
         <v>26</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>59291534000167</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="4">
         <v>1116</v>
       </c>
       <c r="J51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1121824</v>
       </c>
       <c r="B52" s="2">
-        <v>45751.32593328704</v>
-      </c>
-      <c r="C52">
+        <v>45751.325933287037</v>
+      </c>
+      <c r="C52" s="3">
         <v>5872814001373</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
       </c>
-      <c r="E52">
-        <v>278017000105</v>
+      <c r="E52" t="s">
+        <v>98</v>
       </c>
       <c r="F52" t="s">
         <v>45</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="4">
         <v>249.74</v>
       </c>
       <c r="J52" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1210434</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45769.784685057872</v>
+      </c>
+      <c r="C53" s="3">
+        <v>5872814001373</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="3">
+        <v>34499567000680</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="4">
+        <v>261.89999999999998</v>
+      </c>
+      <c r="J53" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
